--- a/submit/요구사항명세서.xlsx
+++ b/submit/요구사항명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgp5\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgp5\Documents\GitHub\tourGuide\submit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5414DA46-89D2-4B21-86DC-DCE64B719400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4DF546-0DE1-48BB-AA23-2A5E6FAD9A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:Y1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1514,7 +1514,7 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25" ht="15.75" customHeight="1">
+    <row r="20" spans="1:25" ht="30">
       <c r="A20" s="14"/>
       <c r="B20" s="8" t="s">
         <v>65</v>
@@ -1654,7 +1654,7 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
     </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+    <row r="24" spans="1:25" ht="30">
       <c r="A24" s="14"/>
       <c r="B24" s="8" t="s">
         <v>78</v>
@@ -1689,7 +1689,7 @@
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:25" ht="60">
       <c r="A25" s="14"/>
       <c r="B25" s="8" t="s">
         <v>82</v>
